--- a/Daily Activity/2025/Jan/ACL CheckList/Users and Roles/User_PHAMCX7  Role_PHAMCX7  Last 185 SR ACL CheckList.xlsx
+++ b/Daily Activity/2025/Jan/ACL CheckList/Users and Roles/User_PHAMCX7  Role_PHAMCX7  Last 185 SR ACL CheckList.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A:$S</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$S$186</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3538" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3538" uniqueCount="229">
   <si>
     <t xml:space="preserve">ORG ACCESS</t>
   </si>
@@ -138,18 +138,22 @@
     <t xml:space="preserve">Fail</t>
   </si>
   <si>
+    <t xml:space="preserve">Payment AP
+NTA Payment AP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment Print Header1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List of Promotion Sales-Package</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promotion Sales-Package</t>
+  </si>
+  <si>
     <t xml:space="preserve">-</t>
   </si>
   <si>
-    <t xml:space="preserve">Payment Print Header1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List of Promotion Sales-Package</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promotion Sales-Package</t>
-  </si>
-  <si>
     <t xml:space="preserve">List Of Import GRN</t>
   </si>
   <si>
@@ -223,6 +227,9 @@
   </si>
   <si>
     <t xml:space="preserve">Sell_Out-Quantity Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import Sales Person</t>
   </si>
   <si>
     <t xml:space="preserve">Import DMS Sales Person Main</t>
@@ -718,9 +725,6 @@
   </si>
   <si>
     <t xml:space="preserve">Product Category ACNeilson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import Sales Person</t>
   </si>
   <si>
     <t xml:space="preserve">Customer Support Days</t>
@@ -968,21 +972,21 @@
   </sheetPr>
   <dimension ref="A1:T187"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C37" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L46" activeCellId="0" sqref="L46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="68.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="68.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="39.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.52"/>
@@ -990,7 +994,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="7.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="35.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="35.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="9.18"/>
   </cols>
   <sheetData>
@@ -1176,7 +1180,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1189,7 +1193,7 @@
       <c r="D4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -1293,7 +1297,7 @@
       </c>
       <c r="S5" s="5"/>
       <c r="T5" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1310,10 +1314,10 @@
         <v>22</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>24</v>
@@ -1353,7 +1357,7 @@
       </c>
       <c r="S6" s="5"/>
       <c r="T6" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1370,10 +1374,10 @@
         <v>22</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>24</v>
@@ -1430,10 +1434,10 @@
         <v>22</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>24</v>
@@ -1490,10 +1494,10 @@
         <v>22</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>24</v>
@@ -1533,7 +1537,7 @@
       </c>
       <c r="S9" s="5"/>
       <c r="T9" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1550,10 +1554,10 @@
         <v>22</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>24</v>
@@ -1593,7 +1597,7 @@
       </c>
       <c r="S10" s="5"/>
       <c r="T10" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1610,10 +1614,10 @@
         <v>22</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>24</v>
@@ -1653,7 +1657,7 @@
       </c>
       <c r="S11" s="5"/>
       <c r="T11" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1670,10 +1674,10 @@
         <v>22</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>24</v>
@@ -1685,7 +1689,7 @@
         <v>25</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>26</v>
@@ -1730,10 +1734,10 @@
         <v>22</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>24</v>
@@ -1773,7 +1777,7 @@
       </c>
       <c r="S13" s="5"/>
       <c r="T13" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1790,10 +1794,10 @@
         <v>22</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>24</v>
@@ -1850,10 +1854,10 @@
         <v>22</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>24</v>
@@ -1893,7 +1897,7 @@
       </c>
       <c r="S15" s="5"/>
       <c r="T15" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1910,10 +1914,10 @@
         <v>22</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>24</v>
@@ -1953,7 +1957,7 @@
       </c>
       <c r="S16" s="5"/>
       <c r="T16" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1970,10 +1974,10 @@
         <v>22</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>24</v>
@@ -2013,7 +2017,7 @@
       </c>
       <c r="S17" s="5"/>
       <c r="T17" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2030,10 +2034,10 @@
         <v>22</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>24</v>
@@ -2073,7 +2077,7 @@
       </c>
       <c r="S18" s="5"/>
       <c r="T18" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2090,10 +2094,10 @@
         <v>22</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>24</v>
@@ -2150,10 +2154,10 @@
         <v>22</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>24</v>
@@ -2210,10 +2214,10 @@
         <v>22</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>24</v>
@@ -2253,7 +2257,7 @@
       </c>
       <c r="S21" s="5"/>
       <c r="T21" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2270,10 +2274,10 @@
         <v>22</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>24</v>
@@ -2313,7 +2317,7 @@
       </c>
       <c r="S22" s="5"/>
       <c r="T22" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2330,10 +2334,10 @@
         <v>22</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>24</v>
@@ -2373,7 +2377,7 @@
       </c>
       <c r="S23" s="5"/>
       <c r="T23" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2390,10 +2394,10 @@
         <v>22</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>24</v>
@@ -2433,7 +2437,7 @@
       </c>
       <c r="S24" s="5"/>
       <c r="T24" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2450,10 +2454,10 @@
         <v>22</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>24</v>
@@ -2510,10 +2514,10 @@
         <v>22</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>24</v>
@@ -2553,7 +2557,7 @@
       </c>
       <c r="S26" s="5"/>
       <c r="T26" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2570,10 +2574,10 @@
         <v>22</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>24</v>
@@ -2613,7 +2617,7 @@
       </c>
       <c r="S27" s="5"/>
       <c r="T27" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2630,10 +2634,10 @@
         <v>22</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>24</v>
@@ -2673,7 +2677,7 @@
       </c>
       <c r="S28" s="5"/>
       <c r="T28" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="64.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2690,10 +2694,10 @@
         <v>22</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>24</v>
@@ -2732,7 +2736,7 @@
         <v>27</v>
       </c>
       <c r="S29" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="T29" s="0" t="s">
         <v>26</v>
@@ -2752,10 +2756,10 @@
         <v>22</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>24</v>
@@ -2795,7 +2799,7 @@
       </c>
       <c r="S30" s="5"/>
       <c r="T30" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2812,10 +2816,10 @@
         <v>22</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>24</v>
@@ -2872,10 +2876,10 @@
         <v>22</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>24</v>
@@ -2915,7 +2919,7 @@
       </c>
       <c r="S32" s="5"/>
       <c r="T32" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2932,10 +2936,10 @@
         <v>22</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>24</v>
@@ -2975,7 +2979,7 @@
       </c>
       <c r="S33" s="5"/>
       <c r="T33" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2992,10 +2996,10 @@
         <v>22</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>24</v>
@@ -3035,7 +3039,7 @@
       </c>
       <c r="S34" s="5"/>
       <c r="T34" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3052,10 +3056,10 @@
         <v>22</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>24</v>
@@ -3095,7 +3099,7 @@
       </c>
       <c r="S35" s="5"/>
       <c r="T35" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3112,10 +3116,10 @@
         <v>22</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>24</v>
@@ -3155,7 +3159,7 @@
       </c>
       <c r="S36" s="5"/>
       <c r="T36" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3172,10 +3176,10 @@
         <v>22</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>24</v>
@@ -3215,7 +3219,7 @@
       </c>
       <c r="S37" s="5"/>
       <c r="T37" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3232,10 +3236,10 @@
         <v>22</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>24</v>
@@ -3275,7 +3279,7 @@
       </c>
       <c r="S38" s="5"/>
       <c r="T38" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3292,10 +3296,10 @@
         <v>22</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>24</v>
@@ -3335,7 +3339,7 @@
       </c>
       <c r="S39" s="5"/>
       <c r="T39" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3352,10 +3356,10 @@
         <v>22</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>24</v>
@@ -3395,7 +3399,7 @@
       </c>
       <c r="S40" s="5"/>
       <c r="T40" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3412,10 +3416,10 @@
         <v>22</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>24</v>
@@ -3455,7 +3459,7 @@
       </c>
       <c r="S41" s="5"/>
       <c r="T41" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3472,10 +3476,10 @@
         <v>22</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>24</v>
@@ -3532,10 +3536,10 @@
         <v>22</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>24</v>
@@ -3575,7 +3579,7 @@
       </c>
       <c r="S43" s="5"/>
       <c r="T43" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3592,10 +3596,10 @@
         <v>22</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>24</v>
@@ -3635,7 +3639,7 @@
       </c>
       <c r="S44" s="5"/>
       <c r="T44" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3652,10 +3656,10 @@
         <v>22</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>24</v>
@@ -3712,10 +3716,10 @@
         <v>22</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>24</v>
@@ -3754,10 +3758,10 @@
         <v>27</v>
       </c>
       <c r="S46" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="T46" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3774,10 +3778,10 @@
         <v>22</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>24</v>
@@ -3786,7 +3790,7 @@
         <v>25</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>26</v>
@@ -3817,7 +3821,7 @@
       </c>
       <c r="S47" s="5"/>
       <c r="T47" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3834,10 +3838,10 @@
         <v>22</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>24</v>
@@ -3877,7 +3881,7 @@
       </c>
       <c r="S48" s="5"/>
       <c r="T48" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3894,10 +3898,10 @@
         <v>22</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>24</v>
@@ -3937,7 +3941,7 @@
       </c>
       <c r="S49" s="5"/>
       <c r="T49" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3954,19 +3958,19 @@
         <v>22</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J50" s="7" t="s">
         <v>26</v>
@@ -3997,7 +4001,7 @@
       </c>
       <c r="S50" s="5"/>
       <c r="T50" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4014,19 +4018,19 @@
         <v>22</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>26</v>
@@ -4074,19 +4078,19 @@
         <v>22</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J52" s="7" t="s">
         <v>26</v>
@@ -4134,19 +4138,19 @@
         <v>22</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J53" s="7" t="s">
         <v>26</v>
@@ -4194,19 +4198,19 @@
         <v>22</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J54" s="7" t="s">
         <v>26</v>
@@ -4254,19 +4258,19 @@
         <v>22</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J55" s="7" t="s">
         <v>26</v>
@@ -4314,19 +4318,19 @@
         <v>22</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J56" s="7" t="s">
         <v>26</v>
@@ -4374,19 +4378,19 @@
         <v>22</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>26</v>
@@ -4434,19 +4438,19 @@
         <v>22</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J58" s="7" t="s">
         <v>26</v>
@@ -4494,19 +4498,19 @@
         <v>22</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J59" s="7" t="s">
         <v>26</v>
@@ -4554,19 +4558,19 @@
         <v>22</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J60" s="7" t="s">
         <v>26</v>
@@ -4614,19 +4618,19 @@
         <v>22</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J61" s="7" t="s">
         <v>26</v>
@@ -4674,19 +4678,19 @@
         <v>22</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J62" s="7" t="s">
         <v>26</v>
@@ -4717,7 +4721,7 @@
       </c>
       <c r="S62" s="5"/>
       <c r="T62" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4734,19 +4738,19 @@
         <v>22</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>26</v>
@@ -4794,19 +4798,19 @@
         <v>22</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J64" s="7" t="s">
         <v>26</v>
@@ -4854,19 +4858,19 @@
         <v>22</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J65" s="7" t="s">
         <v>26</v>
@@ -4914,19 +4918,19 @@
         <v>22</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H66" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J66" s="7" t="s">
         <v>26</v>
@@ -4974,19 +4978,19 @@
         <v>22</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J67" s="7" t="s">
         <v>26</v>
@@ -5034,19 +5038,19 @@
         <v>22</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H68" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J68" s="7" t="s">
         <v>26</v>
@@ -5094,19 +5098,19 @@
         <v>22</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J69" s="7" t="s">
         <v>26</v>
@@ -5154,19 +5158,19 @@
         <v>22</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J70" s="7" t="s">
         <v>26</v>
@@ -5214,19 +5218,19 @@
         <v>22</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J71" s="7" t="s">
         <v>26</v>
@@ -5274,19 +5278,19 @@
         <v>22</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H72" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J72" s="7" t="s">
         <v>26</v>
@@ -5334,19 +5338,19 @@
         <v>22</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J73" s="7" t="s">
         <v>26</v>
@@ -5394,19 +5398,19 @@
         <v>22</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J74" s="7" t="s">
         <v>26</v>
@@ -5454,19 +5458,19 @@
         <v>22</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J75" s="7" t="s">
         <v>26</v>
@@ -5514,13 +5518,13 @@
         <v>22</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H76" s="5" t="s">
         <v>25</v>
@@ -5574,19 +5578,19 @@
         <v>22</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J77" s="7" t="s">
         <v>26</v>
@@ -5634,19 +5638,19 @@
         <v>22</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H78" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J78" s="7" t="s">
         <v>26</v>
@@ -5694,19 +5698,19 @@
         <v>22</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H79" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J79" s="7" t="s">
         <v>26</v>
@@ -5754,19 +5758,19 @@
         <v>22</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H80" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J80" s="7" t="s">
         <v>26</v>
@@ -5814,19 +5818,19 @@
         <v>22</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J81" s="7" t="s">
         <v>26</v>
@@ -5874,19 +5878,19 @@
         <v>22</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H82" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J82" s="7" t="s">
         <v>26</v>
@@ -5934,19 +5938,19 @@
         <v>22</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H83" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J83" s="7" t="s">
         <v>26</v>
@@ -5994,19 +5998,19 @@
         <v>22</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H84" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J84" s="7" t="s">
         <v>26</v>
@@ -6054,19 +6058,19 @@
         <v>22</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H85" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J85" s="7" t="s">
         <v>26</v>
@@ -6114,13 +6118,13 @@
         <v>22</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>25</v>
@@ -6174,19 +6178,19 @@
         <v>22</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J87" s="7" t="s">
         <v>26</v>
@@ -6234,19 +6238,19 @@
         <v>22</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H88" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J88" s="7" t="s">
         <v>26</v>
@@ -6294,19 +6298,19 @@
         <v>22</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J89" s="7" t="s">
         <v>26</v>
@@ -6354,19 +6358,19 @@
         <v>22</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H90" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J90" s="7" t="s">
         <v>26</v>
@@ -6414,19 +6418,19 @@
         <v>22</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H91" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J91" s="7" t="s">
         <v>26</v>
@@ -6474,19 +6478,19 @@
         <v>22</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H92" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J92" s="7" t="s">
         <v>26</v>
@@ -6534,19 +6538,19 @@
         <v>22</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J93" s="7" t="s">
         <v>26</v>
@@ -6594,19 +6598,19 @@
         <v>22</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H94" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J94" s="7" t="s">
         <v>26</v>
@@ -6654,19 +6658,19 @@
         <v>22</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H95" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J95" s="7" t="s">
         <v>26</v>
@@ -6714,19 +6718,19 @@
         <v>22</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H96" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J96" s="7" t="s">
         <v>26</v>
@@ -6774,19 +6778,19 @@
         <v>22</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H97" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J97" s="7" t="s">
         <v>26</v>
@@ -6834,19 +6838,19 @@
         <v>22</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H98" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J98" s="7" t="s">
         <v>26</v>
@@ -6877,7 +6881,7 @@
       </c>
       <c r="S98" s="5"/>
       <c r="T98" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6894,19 +6898,19 @@
         <v>22</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H99" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J99" s="7" t="s">
         <v>26</v>
@@ -6937,7 +6941,7 @@
       </c>
       <c r="S99" s="5"/>
       <c r="T99" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6954,19 +6958,19 @@
         <v>22</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H100" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J100" s="7" t="s">
         <v>26</v>
@@ -6997,7 +7001,7 @@
       </c>
       <c r="S100" s="5"/>
       <c r="T100" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7014,19 +7018,19 @@
         <v>22</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H101" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J101" s="7" t="s">
         <v>26</v>
@@ -7074,19 +7078,19 @@
         <v>22</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H102" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J102" s="7" t="s">
         <v>26</v>
@@ -7134,19 +7138,19 @@
         <v>22</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H103" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J103" s="7" t="s">
         <v>26</v>
@@ -7194,19 +7198,19 @@
         <v>22</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H104" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J104" s="7" t="s">
         <v>26</v>
@@ -7254,19 +7258,19 @@
         <v>22</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H105" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J105" s="7" t="s">
         <v>26</v>
@@ -7314,19 +7318,19 @@
         <v>22</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H106" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J106" s="7" t="s">
         <v>26</v>
@@ -7374,19 +7378,19 @@
         <v>22</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H107" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J107" s="7" t="s">
         <v>26</v>
@@ -7434,19 +7438,19 @@
         <v>22</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H108" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J108" s="7" t="s">
         <v>26</v>
@@ -7494,19 +7498,19 @@
         <v>22</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H109" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J109" s="7" t="s">
         <v>26</v>
@@ -7554,19 +7558,19 @@
         <v>22</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H110" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J110" s="7" t="s">
         <v>26</v>
@@ -7614,19 +7618,19 @@
         <v>22</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H111" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J111" s="7" t="s">
         <v>26</v>
@@ -7674,19 +7678,19 @@
         <v>22</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H112" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J112" s="7" t="s">
         <v>26</v>
@@ -7734,19 +7738,19 @@
         <v>22</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H113" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J113" s="7" t="s">
         <v>26</v>
@@ -7794,19 +7798,19 @@
         <v>22</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H114" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J114" s="7" t="s">
         <v>26</v>
@@ -7854,19 +7858,19 @@
         <v>22</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H115" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J115" s="7" t="s">
         <v>26</v>
@@ -7914,19 +7918,19 @@
         <v>22</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H116" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J116" s="7" t="s">
         <v>26</v>
@@ -7974,19 +7978,19 @@
         <v>22</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H117" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J117" s="7" t="s">
         <v>26</v>
@@ -8034,19 +8038,19 @@
         <v>22</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H118" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J118" s="7" t="s">
         <v>26</v>
@@ -8094,19 +8098,19 @@
         <v>22</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H119" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J119" s="7" t="s">
         <v>26</v>
@@ -8154,19 +8158,19 @@
         <v>22</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H120" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J120" s="7" t="s">
         <v>26</v>
@@ -8214,19 +8218,19 @@
         <v>22</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H121" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J121" s="7" t="s">
         <v>26</v>
@@ -8274,19 +8278,19 @@
         <v>22</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H122" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J122" s="7" t="s">
         <v>26</v>
@@ -8334,19 +8338,19 @@
         <v>22</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H123" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J123" s="7" t="s">
         <v>26</v>
@@ -8394,19 +8398,19 @@
         <v>22</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H124" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J124" s="7" t="s">
         <v>26</v>
@@ -8454,19 +8458,19 @@
         <v>22</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H125" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J125" s="7" t="s">
         <v>26</v>
@@ -8514,19 +8518,19 @@
         <v>22</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H126" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J126" s="7" t="s">
         <v>26</v>
@@ -8574,19 +8578,19 @@
         <v>22</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H127" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J127" s="7" t="s">
         <v>26</v>
@@ -8634,19 +8638,19 @@
         <v>22</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H128" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J128" s="7" t="s">
         <v>26</v>
@@ -8694,19 +8698,19 @@
         <v>22</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H129" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J129" s="7" t="s">
         <v>26</v>
@@ -8754,19 +8758,19 @@
         <v>22</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H130" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J130" s="7" t="s">
         <v>26</v>
@@ -8814,19 +8818,19 @@
         <v>22</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H131" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J131" s="7" t="s">
         <v>26</v>
@@ -8874,19 +8878,19 @@
         <v>22</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H132" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J132" s="7" t="s">
         <v>26</v>
@@ -8934,19 +8938,19 @@
         <v>22</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H133" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J133" s="7" t="s">
         <v>26</v>
@@ -8994,19 +8998,19 @@
         <v>22</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H134" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J134" s="7" t="s">
         <v>26</v>
@@ -9054,19 +9058,19 @@
         <v>22</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H135" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J135" s="7" t="s">
         <v>26</v>
@@ -9114,19 +9118,19 @@
         <v>22</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H136" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I136" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J136" s="7" t="s">
         <v>26</v>
@@ -9157,7 +9161,7 @@
       </c>
       <c r="S136" s="5"/>
       <c r="T136" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9174,19 +9178,19 @@
         <v>22</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H137" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I137" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J137" s="7" t="s">
         <v>26</v>
@@ -9234,19 +9238,19 @@
         <v>22</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H138" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J138" s="7" t="s">
         <v>26</v>
@@ -9294,19 +9298,19 @@
         <v>22</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H139" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J139" s="7" t="s">
         <v>26</v>
@@ -9354,19 +9358,19 @@
         <v>22</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H140" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J140" s="7" t="s">
         <v>26</v>
@@ -9414,19 +9418,19 @@
         <v>22</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H141" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J141" s="7" t="s">
         <v>26</v>
@@ -9474,19 +9478,19 @@
         <v>22</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H142" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J142" s="7" t="s">
         <v>26</v>
@@ -9534,19 +9538,19 @@
         <v>22</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H143" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J143" s="7" t="s">
         <v>26</v>
@@ -9594,19 +9598,19 @@
         <v>22</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H144" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I144" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J144" s="7" t="s">
         <v>26</v>
@@ -9654,19 +9658,19 @@
         <v>22</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H145" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I145" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J145" s="7" t="s">
         <v>26</v>
@@ -9714,19 +9718,19 @@
         <v>22</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H146" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I146" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J146" s="7" t="s">
         <v>26</v>
@@ -9774,19 +9778,19 @@
         <v>22</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H147" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I147" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J147" s="7" t="s">
         <v>26</v>
@@ -9834,19 +9838,19 @@
         <v>22</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H148" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I148" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J148" s="7" t="s">
         <v>26</v>
@@ -9894,19 +9898,19 @@
         <v>22</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H149" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I149" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J149" s="7" t="s">
         <v>26</v>
@@ -9954,19 +9958,19 @@
         <v>22</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H150" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I150" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J150" s="7" t="s">
         <v>26</v>
@@ -10014,19 +10018,19 @@
         <v>22</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H151" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I151" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J151" s="7" t="s">
         <v>26</v>
@@ -10074,19 +10078,19 @@
         <v>22</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G152" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H152" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I152" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J152" s="7" t="s">
         <v>26</v>
@@ -10134,19 +10138,19 @@
         <v>22</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H153" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I153" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J153" s="7" t="s">
         <v>26</v>
@@ -10194,19 +10198,19 @@
         <v>22</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G154" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H154" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I154" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J154" s="7" t="s">
         <v>26</v>
@@ -10254,13 +10258,13 @@
         <v>22</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G155" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H155" s="5" t="s">
         <v>25</v>
@@ -10314,19 +10318,19 @@
         <v>22</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G156" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H156" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I156" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J156" s="7" t="s">
         <v>26</v>
@@ -10374,19 +10378,19 @@
         <v>22</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H157" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I157" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J157" s="7" t="s">
         <v>26</v>
@@ -10434,19 +10438,19 @@
         <v>22</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G158" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H158" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I158" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J158" s="7" t="s">
         <v>26</v>
@@ -10494,19 +10498,19 @@
         <v>22</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G159" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H159" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I159" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J159" s="7" t="s">
         <v>26</v>
@@ -10554,19 +10558,19 @@
         <v>22</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G160" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H160" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I160" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J160" s="7" t="s">
         <v>26</v>
@@ -10614,19 +10618,19 @@
         <v>22</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H161" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J161" s="7" t="s">
         <v>26</v>
@@ -10674,19 +10678,19 @@
         <v>22</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H162" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I162" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J162" s="7" t="s">
         <v>26</v>
@@ -10734,19 +10738,19 @@
         <v>22</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G163" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H163" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I163" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J163" s="7" t="s">
         <v>26</v>
@@ -10794,19 +10798,19 @@
         <v>22</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H164" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I164" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J164" s="7" t="s">
         <v>26</v>
@@ -10854,19 +10858,19 @@
         <v>22</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H165" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I165" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J165" s="7" t="s">
         <v>26</v>
@@ -10914,19 +10918,19 @@
         <v>22</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G166" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H166" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I166" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J166" s="7" t="s">
         <v>26</v>
@@ -10974,19 +10978,19 @@
         <v>22</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G167" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H167" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I167" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J167" s="7" t="s">
         <v>26</v>
@@ -11034,19 +11038,19 @@
         <v>22</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G168" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H168" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I168" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J168" s="7" t="s">
         <v>26</v>
@@ -11094,19 +11098,19 @@
         <v>22</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G169" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H169" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I169" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J169" s="7" t="s">
         <v>26</v>
@@ -11154,19 +11158,19 @@
         <v>22</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G170" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H170" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I170" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J170" s="7" t="s">
         <v>26</v>
@@ -11214,19 +11218,19 @@
         <v>22</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G171" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H171" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I171" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J171" s="7" t="s">
         <v>26</v>
@@ -11274,19 +11278,19 @@
         <v>22</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G172" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H172" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I172" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J172" s="7" t="s">
         <v>26</v>
@@ -11334,19 +11338,19 @@
         <v>22</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G173" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H173" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I173" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J173" s="7" t="s">
         <v>26</v>
@@ -11394,19 +11398,19 @@
         <v>22</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G174" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H174" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I174" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J174" s="7" t="s">
         <v>26</v>
@@ -11454,19 +11458,19 @@
         <v>22</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G175" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H175" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I175" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J175" s="7" t="s">
         <v>26</v>
@@ -11514,19 +11518,19 @@
         <v>22</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G176" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H176" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I176" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J176" s="7" t="s">
         <v>26</v>
@@ -11574,19 +11578,19 @@
         <v>22</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G177" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H177" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I177" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J177" s="7" t="s">
         <v>26</v>
@@ -11634,19 +11638,19 @@
         <v>22</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G178" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H178" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I178" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J178" s="7" t="s">
         <v>26</v>
@@ -11694,19 +11698,19 @@
         <v>22</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>220</v>
+        <v>61</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>220</v>
+        <v>61</v>
       </c>
       <c r="G179" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H179" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I179" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J179" s="7" t="s">
         <v>26</v>
@@ -11754,19 +11758,19 @@
         <v>22</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G180" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H180" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I180" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J180" s="7" t="s">
         <v>26</v>
@@ -11814,19 +11818,19 @@
         <v>22</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G181" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H181" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I181" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J181" s="7" t="s">
         <v>26</v>
@@ -11874,19 +11878,19 @@
         <v>22</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G182" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H182" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I182" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J182" s="7" t="s">
         <v>26</v>
@@ -11934,19 +11938,19 @@
         <v>22</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G183" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H183" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I183" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J183" s="7" t="s">
         <v>26</v>
@@ -11994,19 +11998,19 @@
         <v>22</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G184" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H184" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I184" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J184" s="7" t="s">
         <v>26</v>
@@ -12054,19 +12058,19 @@
         <v>22</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G185" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H185" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I185" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J185" s="7" t="s">
         <v>26</v>
@@ -12114,19 +12118,19 @@
         <v>22</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G186" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H186" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I186" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J186" s="7" t="s">
         <v>26</v>
@@ -12166,7 +12170,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A:S"/>
+  <autoFilter ref="A1:S186"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
